--- a/docs/events2.xlsx
+++ b/docs/events2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saiem 70\Desktop\Summer 2021 projects\DIFA\R_codes\hello_world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A916571-FCB0-4CDA-9F9D-D34417E9EE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C439A-D186-4C06-AF03-863A1FDDEFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Start Time</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Session</t>
   </si>
   <si>
-    <t>Short Description</t>
-  </si>
-  <si>
-    <t>Long Description</t>
-  </si>
-  <si>
     <t>Speaker(s)</t>
   </si>
   <si>
@@ -51,18 +45,9 @@
     <t>Greetings; summary of days activities; entry survey, networking</t>
   </si>
   <si>
-    <t>Lauren Chenarides</t>
-  </si>
-  <si>
-    <t>Drew Hanks</t>
-  </si>
-  <si>
     <t>Session 5</t>
   </si>
   <si>
-    <t>Challenges in working with administrative data</t>
-  </si>
-  <si>
     <t>Panel Discussion: Challenges and Bottlenecks of Working with Administrative Data</t>
   </si>
   <si>
@@ -78,33 +63,18 @@
     <t>Activity 1</t>
   </si>
   <si>
-    <t>RDC-Land: Navigating Licenses and Building a Research Design</t>
-  </si>
-  <si>
     <t>Activity 2</t>
   </si>
   <si>
-    <t>Deterministic Data Linkages: Matching and Fuzzy Matching</t>
-  </si>
-  <si>
     <t>Activity 3</t>
   </si>
   <si>
-    <t>What the Stat?: Econometric and Statistical Considerations for Using Linked Data</t>
-  </si>
-  <si>
-    <t>Amelia Finaret</t>
-  </si>
-  <si>
     <t>Day 2 Wrap-up</t>
   </si>
   <si>
     <t>What did we learn; share comments in exit survey; networking</t>
   </si>
   <si>
-    <t>Lauren Chenarides, Drew Hanks</t>
-  </si>
-  <si>
     <t>12:00PM</t>
   </si>
   <si>
@@ -123,18 +93,12 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Wen You, Bruce Weinberg, Mark Prell</t>
-  </si>
-  <si>
     <t>2:15PM</t>
   </si>
   <si>
     <t>60 Minutes</t>
   </si>
   <si>
-    <t>George Davis, Joe Cummins</t>
-  </si>
-  <si>
     <t>2:30PM</t>
   </si>
   <si>
@@ -151,6 +115,30 @@
   </si>
   <si>
     <t>5:00PM</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://wpcarey.asu.edu/people/profile/3153292), [Drew Hanks](https://ehe.osu.edu/human-sciences/directory?id=hanks.46)</t>
+  </si>
+  <si>
+    <t>[Amelia Finaret](https://sites.allegheny.edu/globalhealth/faculty/amelia-finaret/)</t>
+  </si>
+  <si>
+    <t>[Lauren Chenarides](https://wpcarey.asu.edu/people/profile/3153292)</t>
+  </si>
+  <si>
+    <t>[Drew Hanks](https://ehe.osu.edu/human-sciences/directory?id=hanks.46)</t>
+  </si>
+  <si>
+    <t>[Wen You](https://med.virginia.edu/phs/2019/08/01/you-wen/), [Bruce Weinberg](https://economics.osu.edu/people/weinberg.27), [Mark Prell](https://www.ers.usda.gov/authors/ers-staff-directory/mark-prell/)</t>
+  </si>
+  <si>
+    <t>[George Davis](https://aaec.vt.edu/people/faculty/davis-george.html), [Joe Cummins](https://www.josephrcummins.com/)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>[Activity 1](C:/Users/Saiem 70/Desktop/Summer 2021 projects/DIFA/R_codes/hello_world/_site/activity.html)</t>
   </si>
 </sst>
 </file>
@@ -472,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,11 +473,10 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,185 +484,176 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/events2.xlsx
+++ b/docs/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saiem 70\Desktop\Summer 2021 projects\DIFA\R_codes\hello_world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C439A-D186-4C06-AF03-863A1FDDEFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07187E2-9C30-43AD-8C27-B7270C9A2301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[Activity 1](C:/Users/Saiem 70/Desktop/Summer 2021 projects/DIFA/R_codes/hello_world/_site/activity.html)</t>
+    <t>[Activity 1](https://rahman108.github.io/difa/activity.html)</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/events2.xlsx
+++ b/docs/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saiem 70\Desktop\Summer 2021 projects\DIFA\R_codes\hello_world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07187E2-9C30-43AD-8C27-B7270C9A2301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C439A-D186-4C06-AF03-863A1FDDEFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[Activity 1](https://rahman108.github.io/difa/activity.html)</t>
+    <t>[Activity 1](C:/Users/Saiem 70/Desktop/Summer 2021 projects/DIFA/R_codes/hello_world/_site/activity.html)</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/events2.xlsx
+++ b/docs/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saiem 70\Desktop\Summer 2021 projects\DIFA\R_codes\hello_world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8C439A-D186-4C06-AF03-863A1FDDEFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A24F14-B0C7-466F-BFCB-30214B9C35DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Start Time</t>
   </si>
@@ -42,15 +42,9 @@
     <t>Day 2 Opening Remarks</t>
   </si>
   <si>
-    <t>Greetings; summary of days activities; entry survey, networking</t>
-  </si>
-  <si>
     <t>Session 5</t>
   </si>
   <si>
-    <t>Panel Discussion: Challenges and Bottlenecks of Working with Administrative Data</t>
-  </si>
-  <si>
     <t>Session 6 (Research Presentations)</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>Day 2 Wrap-up</t>
   </si>
   <si>
-    <t>What did we learn; share comments in exit survey; networking</t>
-  </si>
-  <si>
     <t>12:00PM</t>
   </si>
   <si>
@@ -138,7 +129,22 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[Activity 1](C:/Users/Saiem 70/Desktop/Summer 2021 projects/DIFA/R_codes/hello_world/_site/activity.html)</t>
+    <t>Greetings from the FAMPS and FSN Chairs; Highlights from Day 1</t>
+  </si>
+  <si>
+    <t>Challenges and bottlenecks of working with administrative data</t>
+  </si>
+  <si>
+    <t>Navigating Licenses Building a Research Plan to Access RDC Data</t>
+  </si>
+  <si>
+    <t>Deterministic Data Linkages: Matching and Fuzzy Matching</t>
+  </si>
+  <si>
+    <t>Econometric and Statistical Considerations When Using Linked Data</t>
+  </si>
+  <si>
+    <t>Closing from the FAMPS and FSN Chairs</t>
   </si>
 </sst>
 </file>
@@ -462,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,13 +490,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -498,162 +504,162 @@
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
